--- a/soccer/php/result/2016-08-31.xlsx
+++ b/soccer/php/result/2016-08-31.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\70_百度云同步盘\同步目录\百度云同步盘\云同步文件夹\01_同步\lottery_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\just4test\xampp\htdocs\sephiroth\Wtemplate\soccer\php\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="2016-08-31" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1107,13 +1107,15 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="A1:T14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
@@ -2030,8 +2032,17 @@
       <c r="O15">
         <v>-1</v>
       </c>
+      <c r="P15" s="3">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
       <c r="S15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15">
         <v>3</v>
@@ -2083,11 +2094,20 @@
       <c r="O16">
         <v>-1</v>
       </c>
+      <c r="P16" s="3">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
@@ -2136,8 +2156,17 @@
       <c r="O17">
         <v>-1</v>
       </c>
+      <c r="P17" s="3">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
       <c r="S17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17">
         <v>3</v>
@@ -2189,11 +2218,20 @@
       <c r="O18">
         <v>-1</v>
       </c>
+      <c r="P18" s="3">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
@@ -2242,8 +2280,17 @@
       <c r="O19">
         <v>-1</v>
       </c>
+      <c r="P19" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19">
         <v>3</v>
